--- a/Putt Allotment.xlsx
+++ b/Putt Allotment.xlsx
@@ -1,34 +1,14 @@
-
-<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
-  <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Meta" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Assistants_Attendance" sheetId="3" state="visible" r:id="rId3"/>
-  </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
-</workbook>
-</file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -39,7 +19,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -47,21 +27,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,81 +390,4 @@
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
 </a:theme>
-</file>
-
-<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>DATE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>ASSISTANT</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PUNCH IN</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>PUNCH OUT</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/Putt Allotment.xlsx
+++ b/Putt Allotment.xlsx
@@ -1,3 +1,26 @@
+
+<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Meta" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Assistants" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Doctors" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Assistants_Attendance" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Duties_Master" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Duty_Assignments" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Duty_Runs" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Patients" sheetId="9" state="visible" r:id="rId9"/>
+  </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+</workbook>
+</file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
@@ -390,4 +413,578 @@
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
 </a:theme>
+</file>
+
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:O1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Patient ID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Patient Name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>In Time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Out Time</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Procedure</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>DR.</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>FIRST</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>SECOND</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Third</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>CASE PAPER</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>OP</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>SUCTION</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>CLEANING</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>STATUS</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>REMINDER</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>save_version</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>saved_at</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>time_blocks_updated_at</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:O1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>kind</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>department</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>contact_email</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>contact_phone</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>weekly_off</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>pref_first</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>pref_second</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>pref_third</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>created_at</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>updated_at</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>created_by</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>updated_by</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:O1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>kind</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>department</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>contact_email</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>contact_phone</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>weekly_off</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>pref_first</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>pref_second</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>pref_third</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>created_at</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>updated_at</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>created_by</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>updated_by</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>DATE</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>ASSISTANT</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>PUNCH IN</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>PUNCH OUT</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>frequency</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>default_minutes</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>op</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>created_at</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>duty_id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>assistant</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>op</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>est_minutes</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>assistant</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>duty_id</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>started_at</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>due_at</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>ended_at</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>est_minutes</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>op</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/Putt Allotment.xlsx
+++ b/Putt Allotment.xlsx
@@ -9,13 +9,13 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Meta" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Assistants" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Doctors" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Assistants_Attendance" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Duties_Master" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Duty_Assignments" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Duty_Runs" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Patients" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Doctors" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Assistants_Attendance" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Duties_Master" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Duty_Assignments" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Duty_Runs" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Patients" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Assistants" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -649,102 +649,6 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>kind</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>department</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>contact_email</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>contact_phone</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>status</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>weekly_off</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>pref_first</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>pref_second</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>pref_third</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>created_at</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>updated_at</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>created_by</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>updated_by</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -780,7 +684,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -836,7 +740,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -887,7 +791,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -958,7 +862,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -987,4 +891,59 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Test Assistant</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>John Doe</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/Putt Allotment.xlsx
+++ b/Putt Allotment.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Meta" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Doctors" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Assistants_Attendance" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Duties_Master" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Duty_Assignments" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Duty_Runs" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Patients" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Assistants" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Doctors" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Assistants_Attendance" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Duties_Master" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Duty_Assignments" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Duty_Runs" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Assistants" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Patients" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Meta" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -432,77 +432,77 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Patient ID</t>
+          <t>id</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Patient Name</t>
+          <t>name</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>In Time</t>
+          <t>kind</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Out Time</t>
+          <t>department</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Procedure</t>
+          <t>contact_email</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>DR.</t>
+          <t>contact_phone</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>FIRST</t>
+          <t>status</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>SECOND</t>
+          <t>weekly_off</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>Third</t>
+          <t>pref_first</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>CASE PAPER</t>
+          <t>pref_second</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>OP</t>
+          <t>pref_third</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>SUCTION</t>
+          <t>created_at</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>CLEANING</t>
+          <t>updated_at</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>created_by</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">
         <is>
-          <t>REMINDER</t>
+          <t>updated_by</t>
         </is>
       </c>
     </row>
@@ -512,138 +512,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>save_version</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>saved_at</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>time_blocks_updated_at</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:O1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>kind</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>department</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>contact_email</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>contact_phone</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>status</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>weekly_off</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>pref_first</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>pref_second</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>pref_third</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>created_at</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>updated_at</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>created_by</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>updated_by</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -684,7 +552,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -740,7 +608,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -791,7 +659,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -862,38 +730,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -946,4 +783,358 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>0ea4f034-f06e-4357-badd-7ef44e564478</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>FKKF</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AJ2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>kind</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>department</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>contact_email</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>contact_phone</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>weekly_off</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>pref_first</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>pref_second</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>pref_third</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>created_at</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>updated_at</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>created_by</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>updated_by</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>Patient ID</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Patient Name</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>In Time</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>Out Time</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>Procedure</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>DR.</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>FIRST</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>SECOND</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>Third</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>CASE PAPER</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>OP</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>SUCTION</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>CLEANING</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>STATUS</t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>REMINDER_ROW_ID</t>
+        </is>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t>REMINDER_SNOOZE_UNTIL</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t>REMINDER_DISMISSED</t>
+        </is>
+      </c>
+      <c r="AG1" t="inlineStr">
+        <is>
+          <t>STATUS_CHANGED_AT</t>
+        </is>
+      </c>
+      <c r="AH1" t="inlineStr">
+        <is>
+          <t>ACTUAL_START_AT</t>
+        </is>
+      </c>
+      <c r="AI1" t="inlineStr">
+        <is>
+          <t>ACTUAL_END_AT</t>
+        </is>
+      </c>
+      <c r="AJ1" t="inlineStr">
+        <is>
+          <t>STATUS_LOG</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0ea4f034-f06e-4357-badd-7ef44e564478</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>FKKF</t>
+        </is>
+      </c>
+      <c r="AA2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>WAITING</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>cdd7861b-0e20-4e72-a7b7-e023365a21e3</t>
+        </is>
+      </c>
+      <c r="AF2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>key</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>time_blocks</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>time_blocks_updated_at</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2026-02-18T00:45:07.928077+05:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>save_version</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>saved_at</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2026-02-18T00:45:07.930290+05:30</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/Putt Allotment.xlsx
+++ b/Putt Allotment.xlsx
@@ -1025,16 +1025,6 @@
       </c>
     </row>
     <row r="2">
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0ea4f034-f06e-4357-badd-7ef44e564478</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>FKKF</t>
-        </is>
-      </c>
       <c r="AA2" t="b">
         <v>0</v>
       </c>
@@ -1048,7 +1038,7 @@
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>cdd7861b-0e20-4e72-a7b7-e023365a21e3</t>
+          <t>7d779198-7504-420e-b7c0-722155ef3658</t>
         </is>
       </c>
       <c r="AF2" t="b">
@@ -1106,7 +1096,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2026-02-18T00:45:07.928077+05:30</t>
+          <t>2026-02-18T00:48:43.627306+05:30</t>
         </is>
       </c>
     </row>
@@ -1118,7 +1108,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -1130,7 +1120,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2026-02-18T00:45:07.930290+05:30</t>
+          <t>2026-02-18T00:48:43.629885+05:30</t>
         </is>
       </c>
     </row>

--- a/Putt Allotment.xlsx
+++ b/Putt Allotment.xlsx
@@ -1038,7 +1038,7 @@
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>7d779198-7504-420e-b7c0-722155ef3658</t>
+          <t>1a6619d9-2ddb-4227-9027-4fbf1ab95646</t>
         </is>
       </c>
       <c r="AF2" t="b">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2026-02-18T00:48:43.627306+05:30</t>
+          <t>2026-02-18T00:51:18.739692+05:30</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1108,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1120,7 +1120,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2026-02-18T00:48:43.629885+05:30</t>
+          <t>2026-02-18T00:51:18.742160+05:30</t>
         </is>
       </c>
     </row>

--- a/Putt Allotment.xlsx
+++ b/Putt Allotment.xlsx
@@ -7,14 +7,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Doctors" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Assistants_Attendance" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Duties_Master" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Duty_Assignments" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Duty_Runs" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Assistants" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Patients" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Sheet1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Doctors" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Assistants_Attendance" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Duties_Master" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Duty_Assignments" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Duty_Runs" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Assistants" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Patients" sheetId="8" state="visible" r:id="rId8"/>
     <sheet name="Meta" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
@@ -421,6 +421,132 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:U1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Patient ID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Patient Name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>In Time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Out Time</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Procedure</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>DR.</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>FIRST</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>SECOND</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Third</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>CASE PAPER</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>OP</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>SUCTION</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>CLEANING</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>STATUS</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>REMINDER_ROW_ID</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>REMINDER_SNOOZE_UNTIL</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>REMINDER_DISMISSED</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>STATUS_CHANGED_AT</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>ACTUAL_START_AT</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>ACTUAL_END_AT</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>STATUS_LOG</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:O1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -511,7 +637,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -552,7 +678,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -608,7 +734,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -659,7 +785,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -730,7 +856,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -785,7 +911,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -821,228 +947,6 @@
         <is>
           <t>FKKF</t>
         </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:AJ2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>id</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>kind</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>department</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>contact_email</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>contact_phone</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>status</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>weekly_off</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>pref_first</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>pref_second</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>pref_third</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>created_at</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>updated_at</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>created_by</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>updated_by</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Patient ID</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Patient Name</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>In Time</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Out Time</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Procedure</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>DR.</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>FIRST</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>SECOND</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Third</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>CASE PAPER</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>OP</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>SUCTION</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>CLEANING</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>STATUS</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>REMINDER_ROW_ID</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>REMINDER_SNOOZE_UNTIL</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>REMINDER_DISMISSED</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>STATUS_CHANGED_AT</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>ACTUAL_START_AT</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>ACTUAL_END_AT</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>STATUS_LOG</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="AA2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>WAITING</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>1a6619d9-2ddb-4227-9027-4fbf1ab95646</t>
-        </is>
-      </c>
-      <c r="AF2" t="b">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Putt Allotment.xlsx
+++ b/Putt Allotment.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Doctors" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Assistants_Attendance" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Duties_Master" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Duty_Assignments" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Duty_Runs" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Assistants" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Patients" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Meta" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Doctors" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Assistants_Attendance" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Duties_Master" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Duty_Assignments" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Duty_Runs" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Assistants" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Patients" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Meta" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -421,132 +421,6 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Patient ID</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Patient Name</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>In Time</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Out Time</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Procedure</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>DR.</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>FIRST</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>SECOND</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Third</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>CASE PAPER</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>OP</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>SUCTION</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>CLEANING</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>STATUS</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>REMINDER_ROW_ID</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>REMINDER_SNOOZE_UNTIL</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>REMINDER_DISMISSED</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>STATUS_CHANGED_AT</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>ACTUAL_START_AT</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>ACTUAL_END_AT</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>STATUS_LOG</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
   <dimension ref="A1:O1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -637,7 +511,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -678,7 +552,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -734,7 +608,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -785,7 +659,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -856,7 +730,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -911,7 +785,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -954,7 +828,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1000,7 +874,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2026-02-18T00:51:18.739692+05:30</t>
+          <t>2026-02-18T00:54:04.285357+05:30</t>
         </is>
       </c>
     </row>
@@ -1012,7 +886,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -1024,8 +898,188 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2026-02-18T00:51:18.742160+05:30</t>
-        </is>
+          <t>2026-02-18T00:54:04.286879+05:30</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:U2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Patient ID</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Patient Name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>In Time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Out Time</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Procedure</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>DR.</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>FIRST</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>SECOND</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Third</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>CASE PAPER</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>OP</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>SUCTION</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>CLEANING</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>STATUS</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>REMINDER_ROW_ID</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>REMINDER_SNOOZE_UNTIL</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>REMINDER_DISMISSED</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>STATUS_CHANGED_AT</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>ACTUAL_START_AT</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>ACTUAL_END_AT</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>STATUS_LOG</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>P001</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>John Doe</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Dr. Smith</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Assistant 1</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>OP 1</t>
+        </is>
+      </c>
+      <c r="L2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>WAITING</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>test-id-123</t>
+        </is>
+      </c>
+      <c r="Q2" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Putt Allotment.xlsx
+++ b/Putt Allotment.xlsx
@@ -14,8 +14,8 @@
     <sheet name="Duty_Runs" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="Assistants" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="Patients" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Meta" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Sheet1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Sheet1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Meta" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -834,7 +834,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:AJ2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -845,61 +845,204 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>key</t>
+          <t>id</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>value</t>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>kind</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>department</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>contact_email</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>contact_phone</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>status</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>weekly_off</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>pref_first</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>pref_second</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>pref_third</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>created_at</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>updated_at</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>created_by</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>updated_by</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>Patient ID</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Patient Name</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>In Time</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>Out Time</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>Procedure</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>DR.</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>FIRST</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>SECOND</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>Third</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>CASE PAPER</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>OP</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>SUCTION</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>CLEANING</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>STATUS</t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>REMINDER_ROW_ID</t>
+        </is>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t>REMINDER_SNOOZE_UNTIL</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t>REMINDER_DISMISSED</t>
+        </is>
+      </c>
+      <c r="AG1" t="inlineStr">
+        <is>
+          <t>STATUS_CHANGED_AT</t>
+        </is>
+      </c>
+      <c r="AH1" t="inlineStr">
+        <is>
+          <t>ACTUAL_START_AT</t>
+        </is>
+      </c>
+      <c r="AI1" t="inlineStr">
+        <is>
+          <t>ACTUAL_END_AT</t>
+        </is>
+      </c>
+      <c r="AJ1" t="inlineStr">
+        <is>
+          <t>STATUS_LOG</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>time_blocks</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>time_blocks_updated_at</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2026-02-18T00:54:04.285357+05:30</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>save_version</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>saved_at</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2026-02-18T00:54:04.286879+05:30</t>
-        </is>
+      <c r="AA2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>WAITING</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>2799d7a8-0e31-46f6-bcae-2e1085f4e312</t>
+        </is>
+      </c>
+      <c r="AF2" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -913,7 +1056,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -924,162 +1067,61 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Patient ID</t>
+          <t>key</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Patient Name</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>In Time</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Out Time</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Procedure</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>DR.</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>FIRST</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>SECOND</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Third</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>CASE PAPER</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>OP</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>SUCTION</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>CLEANING</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>STATUS</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>REMINDER_ROW_ID</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>REMINDER_SNOOZE_UNTIL</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>REMINDER_DISMISSED</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>STATUS_CHANGED_AT</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>ACTUAL_START_AT</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>ACTUAL_END_AT</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>STATUS_LOG</t>
+          <t>value</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>P001</t>
+          <t>time_blocks</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>John Doe</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Test</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Dr. Smith</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Assistant 1</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>OP 1</t>
-        </is>
-      </c>
-      <c r="L2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>WAITING</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>test-id-123</t>
-        </is>
-      </c>
-      <c r="Q2" t="b">
-        <v>0</v>
+          <t>[]</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>time_blocks_updated_at</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2026-02-18T01:08:26.535535+05:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>save_version</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>saved_at</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2026-02-18T01:08:26.537854+05:30</t>
+        </is>
       </c>
     </row>
   </sheetData>
